--- a/ProcessedData/conf_svm_early_fusion_2.xlsx
+++ b/ProcessedData/conf_svm_early_fusion_2.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.412856209238507</v>
+        <v>-1.032114612612046</v>
       </c>
       <c r="C2">
-        <v>-0.1728666031071674</v>
+        <v>-0.5323040816232033</v>
       </c>
       <c r="D2">
-        <v>1.220316815360585</v>
+        <v>0.6236561215765029</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.09580047153489</v>
+        <v>-1.715022207307325</v>
       </c>
       <c r="C3">
-        <v>0.6941892502678066</v>
+        <v>-0.3067475035373481</v>
       </c>
       <c r="D3">
-        <v>1.11168340838643</v>
+        <v>1.279340193997888</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.659282554593449</v>
+        <v>-2.3494107645934</v>
       </c>
       <c r="C4">
-        <v>0.2024997437941467</v>
+        <v>-0.601830820425758</v>
       </c>
       <c r="D4">
-        <v>1.470129464790471</v>
+        <v>2.267709562072517</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,16 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.025413631857956</v>
+        <v>-0.7307475445869986</v>
       </c>
       <c r="C5">
-        <v>0.2694785836403145</v>
+        <v>-0.4611609886660087</v>
       </c>
       <c r="D5">
-        <v>-0.1979675913202137</v>
+        <v>0.3650687634559322</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5188395135325425</v>
+        <v>-1.093443112945031</v>
       </c>
       <c r="C6">
-        <v>0.9199909011607103</v>
+        <v>-0.3054998208875693</v>
       </c>
       <c r="D6">
-        <v>0.3070992623316152</v>
+        <v>0.6381987786889867</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.9105147501175392</v>
+        <v>-1.010207297086732</v>
       </c>
       <c r="C7">
-        <v>0.6809713978845173</v>
+        <v>-0.07685563172395286</v>
       </c>
       <c r="D7">
-        <v>-0.6964378404439705</v>
+        <v>0.1495416005429548</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.428898953672837</v>
+        <v>-1.283212123552244</v>
       </c>
       <c r="C8">
-        <v>0.7665330978072696</v>
+        <v>-0.1164911901571872</v>
       </c>
       <c r="D8">
-        <v>-0.1185629926689517</v>
+        <v>0.5512968912064562</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,16 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.8705637343999535</v>
+        <v>-1.149055344695386</v>
       </c>
       <c r="C9">
-        <v>0.3895888551612937</v>
+        <v>-0.419330908993734</v>
       </c>
       <c r="D9">
-        <v>0.3018716674669332</v>
+        <v>0.7007370401684294</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.8260921590879254</v>
+        <v>-1.0333546173887</v>
       </c>
       <c r="C10">
-        <v>0.2906973026698518</v>
+        <v>-0.4861968296985936</v>
       </c>
       <c r="D10">
-        <v>0.6905941123632638</v>
+        <v>0.7128635869651165</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.02830117780454</v>
+        <v>-0.7219721276603301</v>
       </c>
       <c r="C11">
-        <v>-0.3197818788601616</v>
+        <v>-0.7209292171454458</v>
       </c>
       <c r="D11">
-        <v>0.356404993964074</v>
+        <v>0.6411626159049579</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -584,16 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5153522360855157</v>
+        <v>-0.4890156510081399</v>
       </c>
       <c r="C12">
-        <v>0.4596824426537796</v>
+        <v>-0.5694984246878929</v>
       </c>
       <c r="D12">
-        <v>-0.5451514956284491</v>
+        <v>0.05126480777970516</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.9899352522742049</v>
+        <v>-1.635657356498901</v>
       </c>
       <c r="C13">
-        <v>0.2556859445747809</v>
+        <v>-0.1828685714992507</v>
       </c>
       <c r="D13">
-        <v>0.8566626123646673</v>
+        <v>1.211639497940635</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.548835378112251</v>
+        <v>-1.222454199914979</v>
       </c>
       <c r="C14">
-        <v>0.05321152355034994</v>
+        <v>-0.5604379452649744</v>
       </c>
       <c r="D14">
-        <v>0.5784780020929441</v>
+        <v>1.11202647165385</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -635,16 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.164561983214496</v>
+        <v>-1.238021888385817</v>
       </c>
       <c r="C15">
-        <v>0.308092491915454</v>
+        <v>-0.08074391482538089</v>
       </c>
       <c r="D15">
-        <v>0.2466658505830736</v>
+        <v>0.7015874315024695</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.377608953704888</v>
+        <v>-1.045497229566639</v>
       </c>
       <c r="C16">
-        <v>-0.2966959654476501</v>
+        <v>-0.4663809526281769</v>
       </c>
       <c r="D16">
-        <v>0.3849415131752963</v>
+        <v>0.8297251602409836</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.8690616575358938</v>
+        <v>-0.4628767494843891</v>
       </c>
       <c r="C17">
-        <v>0.1267058773084687</v>
+        <v>-0.6238204139789677</v>
       </c>
       <c r="D17">
-        <v>0.873812337149022</v>
+        <v>0.366338128396578</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2114050271489228</v>
+        <v>-0.2835492792087301</v>
       </c>
       <c r="C18">
-        <v>0.002012258576503707</v>
+        <v>-0.6909656284891649</v>
       </c>
       <c r="D18">
-        <v>0.515931698185928</v>
+        <v>0.05407442779050831</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.9812248977200448</v>
+        <v>-0.6194113047290805</v>
       </c>
       <c r="C19">
-        <v>-0.2835362008266769</v>
+        <v>-0.2127540009662266</v>
       </c>
       <c r="D19">
-        <v>-0.3782161403096181</v>
+        <v>-0.1687936068435079</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.6201050932456699</v>
+        <v>-1.076714986910712</v>
       </c>
       <c r="C20">
-        <v>0.3798666000566233</v>
+        <v>-0.4178804844407893</v>
       </c>
       <c r="D20">
-        <v>0.4290035462914774</v>
+        <v>0.6394925649401013</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.21397071807968</v>
+        <v>-1.579395466810329</v>
       </c>
       <c r="C21">
-        <v>0.5640516718849985</v>
+        <v>-0.3186855163850111</v>
       </c>
       <c r="D21">
-        <v>0.7125663509569872</v>
+        <v>1.275467748906369</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7013976118654501</v>
+        <v>0.671157486142439</v>
       </c>
       <c r="C22">
-        <v>-0.6103524434821681</v>
+        <v>-0.7866755438044192</v>
       </c>
       <c r="D22">
-        <v>-0.5372611432436825</v>
+        <v>-0.4690562958314414</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-3.777263962138785</v>
+        <v>-1.029565141822488</v>
       </c>
       <c r="C23">
-        <v>0.4984129353626656</v>
+        <v>-0.5471863772673122</v>
       </c>
       <c r="D23">
-        <v>0.4684141915460259</v>
+        <v>1.376132356890252</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.4271554963036183</v>
+        <v>-1.20634856577866</v>
       </c>
       <c r="C24">
-        <v>0.9475388772727171</v>
+        <v>0.1549592501751208</v>
       </c>
       <c r="D24">
-        <v>-0.7554228808234961</v>
+        <v>0.1791662904912611</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.00960775267138</v>
+        <v>-1.472765163258613</v>
       </c>
       <c r="C25">
-        <v>0.7025688027803296</v>
+        <v>-0.04480648771060737</v>
       </c>
       <c r="D25">
-        <v>0.1434930050704566</v>
+        <v>0.8695639066327354</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.500030208749062</v>
+        <v>-1.325923993464159</v>
       </c>
       <c r="C26">
-        <v>0.3721662642465723</v>
+        <v>0.1861974197018504</v>
       </c>
       <c r="D26">
-        <v>0.202672650443123</v>
+        <v>0.2670635719950122</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.9651843441168055</v>
+        <v>-1.084845984575569</v>
       </c>
       <c r="C27">
-        <v>0.7982594383968907</v>
+        <v>0.2196740505616219</v>
       </c>
       <c r="D27">
-        <v>-0.7113511809722295</v>
+        <v>-0.1541276511844699</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.138424915122416</v>
+        <v>-1.279856220771444</v>
       </c>
       <c r="C28">
-        <v>0.6993951807905888</v>
+        <v>0.01646221834575579</v>
       </c>
       <c r="D28">
-        <v>1.03977883031477</v>
+        <v>0.4209673956808369</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.204887419300557</v>
+        <v>-1.11867378483653</v>
       </c>
       <c r="C29">
-        <v>0.6243001716213882</v>
+        <v>-0.1984206749189874</v>
       </c>
       <c r="D29">
-        <v>0.4477161468518992</v>
+        <v>0.425925062860952</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.887552002468657</v>
+        <v>-1.391172041669014</v>
       </c>
       <c r="C30">
-        <v>0.7633502291553486</v>
+        <v>-0.04572391901271163</v>
       </c>
       <c r="D30">
-        <v>0.3739806537109019</v>
+        <v>0.6988064656968134</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.8638469688934134</v>
+        <v>-1.192437677977884</v>
       </c>
       <c r="C31">
-        <v>0.3827940244555221</v>
+        <v>0.03571131644103372</v>
       </c>
       <c r="D31">
-        <v>-0.01434425280774893</v>
+        <v>0.4479444260411056</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,16 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.310590554313519</v>
+        <v>-1.718495307256611</v>
       </c>
       <c r="C32">
-        <v>0.7033276344437769</v>
+        <v>-0.04316295891304635</v>
       </c>
       <c r="D32">
-        <v>0.6364578254109204</v>
+        <v>1.099147372263618</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.023805792964603</v>
+        <v>-1.482374401461137</v>
       </c>
       <c r="C33">
-        <v>0.8515618482051263</v>
+        <v>-0.02837459440795721</v>
       </c>
       <c r="D33">
-        <v>0.01727258217981847</v>
+        <v>0.5588716163209122</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.9839259294915326</v>
+        <v>-1.227327181810077</v>
       </c>
       <c r="C34">
-        <v>0.4299941929011021</v>
+        <v>-0.03731133018829826</v>
       </c>
       <c r="D34">
-        <v>0.5846229360216749</v>
+        <v>0.39504808677904</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.025901077163048</v>
+        <v>-1.466017646998726</v>
       </c>
       <c r="C35">
-        <v>0.6524025124271148</v>
+        <v>-0.3007267804852333</v>
       </c>
       <c r="D35">
-        <v>1.785839793319782</v>
+        <v>1.061259698332016</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.252002333964448</v>
+        <v>-1.615975899775886</v>
       </c>
       <c r="C36">
-        <v>1.056099140080076</v>
+        <v>0.224133985998196</v>
       </c>
       <c r="D36">
-        <v>0.4338991352004024</v>
+        <v>0.5453476956458578</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,16 +1105,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.254109340282925</v>
+        <v>-1.725754432824816</v>
       </c>
       <c r="C37">
-        <v>0.9224701000505983</v>
+        <v>0.277033287578915</v>
       </c>
       <c r="D37">
-        <v>0.2881203447401043</v>
+        <v>0.7237978804478731</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-4.42964734690135</v>
+        <v>-1.783251654423161</v>
       </c>
       <c r="C38">
-        <v>0.9161476306687244</v>
+        <v>0.221864454141498</v>
       </c>
       <c r="D38">
-        <v>-0.3882710022830743</v>
+        <v>0.82788384028462</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-3.304373020159864</v>
+        <v>-1.665432374615296</v>
       </c>
       <c r="C39">
-        <v>0.4625768800852844</v>
+        <v>-0.2989283444001609</v>
       </c>
       <c r="D39">
-        <v>0.7701047263412676</v>
+        <v>1.215755774713648</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.197071357456429</v>
+        <v>-1.361087933843959</v>
       </c>
       <c r="C40">
-        <v>0.5779647260301337</v>
+        <v>-0.05599393816546729</v>
       </c>
       <c r="D40">
-        <v>0.8894337023931617</v>
+        <v>0.5896609981278065</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.172660590901534</v>
+        <v>-1.797816366521112</v>
       </c>
       <c r="C41">
-        <v>0.6978815159229043</v>
+        <v>0.212130503438076</v>
       </c>
       <c r="D41">
-        <v>0.5030618900292091</v>
+        <v>0.8341204819612398</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,16 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.7609036023830655</v>
+        <v>-1.720085634964925</v>
       </c>
       <c r="C42">
-        <v>2.360151623664191</v>
+        <v>-0.0692467734326541</v>
       </c>
       <c r="D42">
-        <v>-0.885754599282077</v>
+        <v>0.5291051664176067</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.8338349794223598</v>
+        <v>-1.442970843500674</v>
       </c>
       <c r="C43">
-        <v>0.6687677637124965</v>
+        <v>-0.2698729403317712</v>
       </c>
       <c r="D43">
-        <v>1.227008846649569</v>
+        <v>0.8471426193401341</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.119083581067542</v>
+        <v>-1.311242092274126</v>
       </c>
       <c r="C44">
-        <v>0.6830431646942786</v>
+        <v>-0.08795418639508031</v>
       </c>
       <c r="D44">
-        <v>0.7266746122771842</v>
+        <v>0.6515894475449111</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.224294367136765</v>
+        <v>-1.177965373369552</v>
       </c>
       <c r="C45">
-        <v>0.6001055611336275</v>
+        <v>-0.07075347991010207</v>
       </c>
       <c r="D45">
-        <v>0.09915393752487034</v>
+        <v>0.1897914634209448</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.294037124047317</v>
+        <v>-1.816991838840024</v>
       </c>
       <c r="C46">
-        <v>0.6529883816101912</v>
+        <v>0.1001265432225538</v>
       </c>
       <c r="D46">
-        <v>0.8629414827319505</v>
+        <v>1.033961378057918</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,16 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-3.314441353506225</v>
+        <v>-1.426454266810958</v>
       </c>
       <c r="C47">
-        <v>0.4547285427050586</v>
+        <v>-0.6017471605841269</v>
       </c>
       <c r="D47">
-        <v>-0.2463392050843445</v>
+        <v>0.7549918354084477</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.56233018154267</v>
+        <v>-1.658924020690393</v>
       </c>
       <c r="C48">
-        <v>0.5537637305551212</v>
+        <v>0.01604169366638851</v>
       </c>
       <c r="D48">
-        <v>0.3189961286401385</v>
+        <v>0.7368432439040777</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.8672921605850945</v>
+        <v>-1.033668029855694</v>
       </c>
       <c r="C49">
-        <v>-0.2884278487620244</v>
+        <v>-0.2443528507634912</v>
       </c>
       <c r="D49">
-        <v>0.3154750951594666</v>
+        <v>0.3557407473508387</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.000796515067063408</v>
+        <v>-0.2023190206328123</v>
       </c>
       <c r="C50">
-        <v>0.7974810734416835</v>
+        <v>0.4922707396732338</v>
       </c>
       <c r="D50">
-        <v>-1.673411187933071</v>
+        <v>-1.430824285176764</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.040598842654903</v>
+        <v>0.7333947146111686</v>
       </c>
       <c r="C51">
-        <v>0.4604747242930038</v>
+        <v>0.0632718753213124</v>
       </c>
       <c r="D51">
-        <v>-2.497487662764544</v>
+        <v>-1.887162971836697</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7243152268089743</v>
+        <v>0.449119723253772</v>
       </c>
       <c r="C52">
-        <v>0.5388955872081678</v>
+        <v>-0.04942469351743047</v>
       </c>
       <c r="D52">
-        <v>-1.951802750988408</v>
+        <v>-1.561417674019162</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6996299116573625</v>
+        <v>0.3790642606205331</v>
       </c>
       <c r="C53">
-        <v>0.03434101578949343</v>
+        <v>-0.1688802242416415</v>
       </c>
       <c r="D53">
-        <v>-1.582293340578611</v>
+        <v>-1.353606314759271</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1298,16 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.08985125048401388</v>
+        <v>0.2327306692199373</v>
       </c>
       <c r="C54">
-        <v>0.3709959043474009</v>
+        <v>0.1649159876832673</v>
       </c>
       <c r="D54">
-        <v>-1.819968852451729</v>
+        <v>-1.600159656009764</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5259890009538248</v>
+        <v>0.4186156814217704</v>
       </c>
       <c r="C55">
-        <v>0.655051864311868</v>
+        <v>-0.00018506554283447</v>
       </c>
       <c r="D55">
-        <v>-1.400982704786848</v>
+        <v>-1.623447462678385</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.8398833794855647</v>
+        <v>0.4539206755968033</v>
       </c>
       <c r="C56">
-        <v>0.4330116105531956</v>
+        <v>-0.1858083905781573</v>
       </c>
       <c r="D56">
-        <v>-1.235766304713031</v>
+        <v>-1.33919931674997</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6530435112698183</v>
+        <v>0.8376464525116445</v>
       </c>
       <c r="C57">
-        <v>0.005128339098982011</v>
+        <v>-0.1965899508437304</v>
       </c>
       <c r="D57">
-        <v>-2.153583549842324</v>
+        <v>-1.811722461682025</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.643071443306833</v>
+        <v>0.9518794008983749</v>
       </c>
       <c r="C58">
-        <v>0.2775573917478635</v>
+        <v>0.1211165634667872</v>
       </c>
       <c r="D58">
-        <v>-2.536191239503191</v>
+        <v>-2.19415602883934</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9954441488885193</v>
+        <v>0.03708812964391917</v>
       </c>
       <c r="C59">
-        <v>1.176369682876449</v>
+        <v>0.3834746449373337</v>
       </c>
       <c r="D59">
-        <v>-1.808277219210207</v>
+        <v>-1.027621780360938</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.486090358672452</v>
+        <v>0.2493555593162203</v>
       </c>
       <c r="C60">
-        <v>0.3320428468531803</v>
+        <v>0.1501001490492419</v>
       </c>
       <c r="D60">
-        <v>-1.521906645748798</v>
+        <v>-1.550100902785823</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.078324733859857</v>
+        <v>1.065582067880344</v>
       </c>
       <c r="C61">
-        <v>0.3920035756976666</v>
+        <v>0.04357120641033334</v>
       </c>
       <c r="D61">
-        <v>-2.893558785810834</v>
+        <v>-2.386267138512601</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4971405776971705</v>
+        <v>0.5205305058406022</v>
       </c>
       <c r="C62">
-        <v>0.5790874215080134</v>
+        <v>0.1675572697910223</v>
       </c>
       <c r="D62">
-        <v>-2.003841042435326</v>
+        <v>-1.827431099171203</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6054833246049516</v>
+        <v>0.6676733199957983</v>
       </c>
       <c r="C63">
-        <v>0.2364428884595511</v>
+        <v>-0.06435776612897524</v>
       </c>
       <c r="D63">
-        <v>-1.528513525875516</v>
+        <v>-1.838893782681854</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.552602693081525</v>
+        <v>0.1928800997842653</v>
       </c>
       <c r="C64">
-        <v>0.9719118567750548</v>
+        <v>0.01346986497664333</v>
       </c>
       <c r="D64">
-        <v>-1.351130672543648</v>
+        <v>-0.9053569851664836</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6346760105693534</v>
+        <v>0.8586240135142011</v>
       </c>
       <c r="C65">
-        <v>0.6529858764834705</v>
+        <v>0.2306735026707794</v>
       </c>
       <c r="D65">
-        <v>-2.965628856693361</v>
+        <v>-2.331052721905678</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0710032166417533</v>
+        <v>0.4023525183894789</v>
       </c>
       <c r="C66">
-        <v>0.8219732490197837</v>
+        <v>0.5834661064534322</v>
       </c>
       <c r="D66">
-        <v>-2.620614545762433</v>
+        <v>-2.237826579518856</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5795033027407896</v>
+        <v>0.04012012569735829</v>
       </c>
       <c r="C67">
-        <v>1.1288889463869</v>
+        <v>0.2916343797437967</v>
       </c>
       <c r="D67">
-        <v>-2.338987633469787</v>
+        <v>-1.495633381417519</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.380296256334012</v>
+        <v>0.6129216311088859</v>
       </c>
       <c r="C68">
-        <v>1.338341950978808</v>
+        <v>-0.670858713677845</v>
       </c>
       <c r="D68">
-        <v>-2.167818676484538</v>
+        <v>-1.12885777406652</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.911727747057347</v>
+        <v>0.4473728675192567</v>
       </c>
       <c r="C69">
-        <v>0.2117413747074149</v>
+        <v>-0.5421297807515243</v>
       </c>
       <c r="D69">
-        <v>-0.9961075975701817</v>
+        <v>-0.3300092022338267</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4672033317702635</v>
+        <v>0.440473520136907</v>
       </c>
       <c r="C70">
-        <v>0.6061572394754907</v>
+        <v>0.0172261364069036</v>
       </c>
       <c r="D70">
-        <v>-1.57450055076247</v>
+        <v>-1.678869586163312</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.010730088176582</v>
+        <v>0.7999578009128021</v>
       </c>
       <c r="C71">
-        <v>1.183816923630287</v>
+        <v>-0.5509460600452196</v>
       </c>
       <c r="D71">
-        <v>-2.932138341116024</v>
+        <v>-1.634736343670707</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.533408816971761</v>
+        <v>0.2780684919735266</v>
       </c>
       <c r="C72">
-        <v>1.160703300019067</v>
+        <v>0.2202817858600966</v>
       </c>
       <c r="D72">
-        <v>-1.788221005233983</v>
+        <v>-0.9541212716887492</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.775747353908275</v>
+        <v>0.1854919077818822</v>
       </c>
       <c r="C73">
-        <v>1.323730403303659</v>
+        <v>0.2809315512566891</v>
       </c>
       <c r="D73">
-        <v>-1.92092919519694</v>
+        <v>-0.943847819026423</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.71523455769904</v>
+        <v>1.18364101205065</v>
       </c>
       <c r="C74">
-        <v>-1.03332513015803</v>
+        <v>-1.118948478635729</v>
       </c>
       <c r="D74">
-        <v>-1.850449019867344</v>
+        <v>-1.328337921544538</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,16 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5263134230261777</v>
+        <v>0.3544880953541004</v>
       </c>
       <c r="C75">
-        <v>0.6622928239972344</v>
+        <v>0.3109160871707325</v>
       </c>
       <c r="D75">
-        <v>-2.052422945901003</v>
+        <v>-1.772533731864224</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4822880242032438</v>
+        <v>0.079467394248046</v>
       </c>
       <c r="C76">
-        <v>0.8895294899196483</v>
+        <v>0.2947393966084595</v>
       </c>
       <c r="D76">
-        <v>-1.383544451482213</v>
+        <v>-1.164028311913876</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1689,16 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.097085357340105</v>
+        <v>-0.6479081122615804</v>
       </c>
       <c r="C77">
-        <v>1.86927773701611</v>
+        <v>0.4559166196005513</v>
       </c>
       <c r="D77">
-        <v>-0.2262826511337476</v>
+        <v>0.8122167601430914</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1706,16 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1146912154425899</v>
+        <v>0.4087810608657437</v>
       </c>
       <c r="C78">
-        <v>0.7196296674042333</v>
+        <v>0.3234593142595513</v>
       </c>
       <c r="D78">
-        <v>-2.540648051553524</v>
+        <v>-1.995024728772723</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.466933971301332</v>
+        <v>0.4136309630357655</v>
       </c>
       <c r="C79">
-        <v>-0.09500259063953544</v>
+        <v>-0.298336194039897</v>
       </c>
       <c r="D79">
-        <v>-1.045725466212275</v>
+        <v>-0.9609833701111006</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.030764912603948</v>
+        <v>0.3214424655192399</v>
       </c>
       <c r="C80">
-        <v>0.4733064141104241</v>
+        <v>-0.3875417280270045</v>
       </c>
       <c r="D80">
-        <v>-0.4952222921781281</v>
+        <v>-0.5640719783590423</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1757,16 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8887963853254619</v>
+        <v>0.7634897744305809</v>
       </c>
       <c r="C81">
-        <v>1.010304039056631</v>
+        <v>-0.3469072496364635</v>
       </c>
       <c r="D81">
-        <v>-3.09739236731949</v>
+        <v>-1.91529427661963</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.8147749789218255</v>
+        <v>0.4154463346705309</v>
       </c>
       <c r="C82">
-        <v>0.3344406205908004</v>
+        <v>-0.3908844186314994</v>
       </c>
       <c r="D82">
-        <v>-2.060992442518425</v>
+        <v>-1.188333568352637</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.2996304838801344</v>
+        <v>0.4851739649323584</v>
       </c>
       <c r="C83">
-        <v>-0.1840281439637125</v>
+        <v>-0.4163308299317429</v>
       </c>
       <c r="D83">
-        <v>-1.246781115980578</v>
+        <v>-1.21290464217113</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6972821731944367</v>
+        <v>0.3771518400676467</v>
       </c>
       <c r="C84">
-        <v>-0.395023529977013</v>
+        <v>-0.4945002527667324</v>
       </c>
       <c r="D84">
-        <v>-1.137554594471553</v>
+        <v>-0.8643184166711952</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.96370145070279</v>
+        <v>0.2038067233195568</v>
       </c>
       <c r="C85">
-        <v>1.503420589783913</v>
+        <v>0.441628548895396</v>
       </c>
       <c r="D85">
-        <v>-1.82165609063732</v>
+        <v>-0.8055945693979457</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.723797036517466</v>
+        <v>0.5461900866735589</v>
       </c>
       <c r="C86">
-        <v>0.4924357378932601</v>
+        <v>-0.4618484485700377</v>
       </c>
       <c r="D86">
-        <v>-1.312846391314844</v>
+        <v>-0.984020733183924</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -1859,16 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.761604771401213</v>
+        <v>6.865626617258425e-05</v>
       </c>
       <c r="C87">
-        <v>0.477265672251276</v>
+        <v>-0.66838763932018</v>
       </c>
       <c r="D87">
-        <v>0.0005615612339677223</v>
+        <v>0.9289849587691723</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7767822596744978</v>
+        <v>0.5698311977435477</v>
       </c>
       <c r="C88">
-        <v>0.6966368501077665</v>
+        <v>0.2974944503962213</v>
       </c>
       <c r="D88">
-        <v>-2.312424427038387</v>
+        <v>-1.992572854582337</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.2494696555292774</v>
+        <v>-0.04098781819538394</v>
       </c>
       <c r="C89">
-        <v>0.9112946173089784</v>
+        <v>0.1358975146272391</v>
       </c>
       <c r="D89">
-        <v>-1.55375070024388</v>
+        <v>-0.4377433865963507</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7764056354985092</v>
+        <v>0.2406858708381441</v>
       </c>
       <c r="C90">
-        <v>0.6912022670894128</v>
+        <v>0.2047574451160646</v>
       </c>
       <c r="D90">
-        <v>-2.234359231536152</v>
+        <v>-1.413504849181203</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.958203405463427</v>
+        <v>0.6859515529635589</v>
       </c>
       <c r="C91">
-        <v>0.6095015100562362</v>
+        <v>0.02517912534607955</v>
       </c>
       <c r="D91">
-        <v>-2.40495527606227</v>
+        <v>-1.73301624663296</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -1944,16 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.02780399685967982</v>
+        <v>-0.159630562019539</v>
       </c>
       <c r="C92">
-        <v>-0.4209947704354297</v>
+        <v>-0.5888798581991898</v>
       </c>
       <c r="D92">
-        <v>-0.1858600222906474</v>
+        <v>-0.1324442505739616</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3946616386427819</v>
+        <v>-0.5296926231794759</v>
       </c>
       <c r="C93">
-        <v>0.09619365298890649</v>
+        <v>-0.5281041102923609</v>
       </c>
       <c r="D93">
-        <v>1.159031162357613</v>
+        <v>0.2100270886805041</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.01190652438012219</v>
+        <v>-0.26379343566748</v>
       </c>
       <c r="C94">
-        <v>-0.09237626540085911</v>
+        <v>-0.698799731265589</v>
       </c>
       <c r="D94">
-        <v>0.2557977759619534</v>
+        <v>0.228298436826008</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.02886826786828983</v>
+        <v>-0.5796642012960813</v>
       </c>
       <c r="C95">
-        <v>0.08270518009276064</v>
+        <v>-0.5002562348231261</v>
       </c>
       <c r="D95">
-        <v>0.5427873034458613</v>
+        <v>0.4277210097876085</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.3341654202111087</v>
+        <v>-0.3300121880511644</v>
       </c>
       <c r="C96">
-        <v>0.04989866998417167</v>
+        <v>-0.5465340967630946</v>
       </c>
       <c r="D96">
-        <v>-0.4795206335136917</v>
+        <v>-0.1216487431318057</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,16 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.06477461216119329</v>
+        <v>-0.2233273715762129</v>
       </c>
       <c r="C97">
-        <v>0.02005361230371995</v>
+        <v>-0.5511477749561009</v>
       </c>
       <c r="D97">
-        <v>-0.5679948677751612</v>
+        <v>0.008936611914052039</v>
+      </c>
+      <c r="E97">
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003279053191870718</v>
+        <v>-0.7574941904376433</v>
       </c>
       <c r="C98">
-        <v>0.2547159634976379</v>
+        <v>-0.5479514134061626</v>
       </c>
       <c r="D98">
-        <v>1.195917171643817</v>
+        <v>0.7386669944276847</v>
+      </c>
+      <c r="E98">
+        <v>13</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1815037777590979</v>
+        <v>-0.9356206649271956</v>
       </c>
       <c r="C99">
-        <v>0.5617568924098523</v>
+        <v>0.1763939434680127</v>
       </c>
       <c r="D99">
-        <v>-0.5031344467647231</v>
+        <v>0.04442210963657411</v>
+      </c>
+      <c r="E99">
+        <v>13</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.02435969133348864</v>
+        <v>-0.8859784585983894</v>
       </c>
       <c r="C100">
-        <v>0.2040529686444635</v>
+        <v>-0.4228498457231002</v>
       </c>
       <c r="D100">
-        <v>0.5631602296103725</v>
+        <v>0.7830633395722959</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2097,16 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.08949959250817824</v>
+        <v>-1.574196139548495</v>
       </c>
       <c r="C101">
-        <v>1.007206574644423</v>
+        <v>-0.07454650421338162</v>
       </c>
       <c r="D101">
-        <v>0.7553677835772191</v>
+        <v>1.411130200617174</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.3710334159528758</v>
+        <v>-0.304823678186681</v>
       </c>
       <c r="C102">
-        <v>0.1239196506013819</v>
+        <v>-0.1921105299351699</v>
       </c>
       <c r="D102">
-        <v>-0.9900303448871199</v>
+        <v>-0.3271890928532093</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.09467074320412427</v>
+        <v>-0.3415969177551866</v>
       </c>
       <c r="C103">
-        <v>-0.0360948917608712</v>
+        <v>-0.566565635051403</v>
       </c>
       <c r="D103">
-        <v>-0.09075074177410847</v>
+        <v>0.1504410336338223</v>
+      </c>
+      <c r="E103">
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.323164249347631</v>
+        <v>-1.065261955005912</v>
       </c>
       <c r="C104">
-        <v>0.7716767083755565</v>
+        <v>-0.5733106262741285</v>
       </c>
       <c r="D104">
-        <v>0.799047439619588</v>
+        <v>1.214620606273045</v>
+      </c>
+      <c r="E104">
+        <v>13</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.1388035739158293</v>
+        <v>-0.8568907003249957</v>
       </c>
       <c r="C105">
-        <v>0.4907151495860673</v>
+        <v>-0.7643506118250614</v>
       </c>
       <c r="D105">
-        <v>0.2948589244938958</v>
+        <v>0.863335907958674</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.2435390157425117</v>
+        <v>-0.5728489684061455</v>
       </c>
       <c r="C106">
-        <v>0.2230079422858299</v>
+        <v>-0.7417030515209324</v>
       </c>
       <c r="D106">
-        <v>0.2592919277317729</v>
+        <v>0.7390256906249459</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.1686138402332843</v>
+        <v>-0.249318675094488</v>
       </c>
       <c r="C107">
-        <v>-0.3811145475758273</v>
+        <v>-0.8093649893937115</v>
       </c>
       <c r="D107">
-        <v>0.08555960568111454</v>
+        <v>0.2597029943354598</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.482523299700068</v>
+        <v>-1.825829249189258</v>
       </c>
       <c r="C108">
-        <v>0.8578772777901124</v>
+        <v>-0.2612419741026471</v>
       </c>
       <c r="D108">
-        <v>1.191857561134796</v>
+        <v>1.810578850218923</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,16 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1669142419868403</v>
+        <v>-0.4844668461047543</v>
       </c>
       <c r="C109">
-        <v>0.06429365194306511</v>
+        <v>-0.5639412314534984</v>
       </c>
       <c r="D109">
-        <v>0.1213218115156921</v>
+        <v>0.4838841366958441</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2250,16 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1911822036630018</v>
+        <v>-0.00744971489234858</v>
       </c>
       <c r="C110">
-        <v>0.6536743583414872</v>
+        <v>-0.2716903211940588</v>
       </c>
       <c r="D110">
-        <v>-1.467561587997489</v>
+        <v>-0.674864600791708</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.09322415354665181</v>
+        <v>-0.4404976650645251</v>
       </c>
       <c r="C111">
-        <v>0.2535863572644146</v>
+        <v>-0.5290785222875398</v>
       </c>
       <c r="D111">
-        <v>-0.3086787691054587</v>
+        <v>0.1238252367323276</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.2028646723558452</v>
+        <v>-1.104575469345223</v>
       </c>
       <c r="C112">
-        <v>0.05777369152267348</v>
+        <v>-0.5039189906661924</v>
       </c>
       <c r="D112">
-        <v>0.7516731541830203</v>
+        <v>1.165259990852258</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,16 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.2353366588671612</v>
+        <v>-0.7574778805156008</v>
       </c>
       <c r="C113">
-        <v>0.2613463956243519</v>
+        <v>-0.03313804847100678</v>
       </c>
       <c r="D113">
-        <v>-0.02883915254388697</v>
+        <v>0.171657082978405</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2318,16 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-4.756093784099102</v>
+        <v>-0.6621573181344491</v>
       </c>
       <c r="C114">
-        <v>0.3018851782685513</v>
+        <v>-0.52846944038681</v>
       </c>
       <c r="D114">
-        <v>-1.215785740328202</v>
+        <v>0.5382987214621533</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.09053141365897671</v>
+        <v>-0.8118094794452582</v>
       </c>
       <c r="C115">
-        <v>0.2472098481689369</v>
+        <v>-0.5532666173539591</v>
       </c>
       <c r="D115">
-        <v>0.4549958207008772</v>
+        <v>0.8104753375414613</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,16 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2126253662323996</v>
+        <v>-1.037680979186723</v>
       </c>
       <c r="C116">
-        <v>0.6428393955338998</v>
+        <v>-0.2346762855302301</v>
       </c>
       <c r="D116">
-        <v>-0.0158006047131814</v>
+        <v>0.8993990445812825</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2369,16 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.5656427151807406</v>
+        <v>-1.372610351446104</v>
       </c>
       <c r="C117">
-        <v>0.9417035996660075</v>
+        <v>-0.1287537679595211</v>
       </c>
       <c r="D117">
-        <v>0.5213183405815722</v>
+        <v>1.047598235473162</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2386,16 +2725,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.3871676026486967</v>
+        <v>-0.383536248497806</v>
       </c>
       <c r="C118">
-        <v>1.225125937036297</v>
+        <v>-0.355781260587923</v>
       </c>
       <c r="D118">
-        <v>-1.383810203775154</v>
+        <v>-0.2206564799643227</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2403,16 +2745,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-7.968544442692025</v>
+        <v>-0.7113247573492129</v>
       </c>
       <c r="C119">
-        <v>-0.2501271934765031</v>
+        <v>-0.8017039681441855</v>
       </c>
       <c r="D119">
-        <v>-2.147442128172725</v>
+        <v>0.4292905377017147</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.9767733650575448</v>
+        <v>-2.067393939325784</v>
       </c>
       <c r="C120">
-        <v>0.6943897814242841</v>
+        <v>-0.2847067167255659</v>
       </c>
       <c r="D120">
-        <v>1.307561845584937</v>
+        <v>1.797143692755378</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,16 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.09234173530669415</v>
+        <v>-1.045971472255927</v>
       </c>
       <c r="C121">
-        <v>0.7661502210807388</v>
+        <v>0.1078026171492464</v>
       </c>
       <c r="D121">
-        <v>-0.6818840303143421</v>
+        <v>0.2673040593233033</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.05354196241914466</v>
+        <v>-0.8026212408666584</v>
       </c>
       <c r="C122">
-        <v>0.6178760875325359</v>
+        <v>0.08779186330225851</v>
       </c>
       <c r="D122">
-        <v>-0.804172055085866</v>
+        <v>0.0059344282272909</v>
+      </c>
+      <c r="E122">
+        <v>13</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.3377544544584252</v>
+        <v>-0.1704513904282759</v>
       </c>
       <c r="C123">
-        <v>0.4979262476120957</v>
+        <v>-0.0673599199060393</v>
       </c>
       <c r="D123">
-        <v>-1.125554901742833</v>
+        <v>-0.6394046542375348</v>
+      </c>
+      <c r="E123">
+        <v>13</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2488,16 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.2519632813643213</v>
+        <v>-0.9521469029734773</v>
       </c>
       <c r="C124">
-        <v>1.021337589150592</v>
+        <v>-0.05050163887774724</v>
       </c>
       <c r="D124">
-        <v>-0.3531545040838887</v>
+        <v>0.3017119673722453</v>
+      </c>
+      <c r="E124">
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2505,16 +2865,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.1535190858336804</v>
+        <v>-1.194761249931762</v>
       </c>
       <c r="C125">
-        <v>0.8213118732819883</v>
+        <v>-0.1218726648663385</v>
       </c>
       <c r="D125">
-        <v>-0.3456912351998143</v>
+        <v>0.9114588733263633</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-9.695847965511932</v>
+        <v>-0.6282024358600766</v>
       </c>
       <c r="C126">
-        <v>-0.1992455111428912</v>
+        <v>-0.9010160737175352</v>
       </c>
       <c r="D126">
-        <v>-2.576223826589639</v>
+        <v>1.102764095799352</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,16 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.5516446555651742</v>
+        <v>-1.185686957683252</v>
       </c>
       <c r="C127">
-        <v>0.9124973243364323</v>
+        <v>-0.1930922926152948</v>
       </c>
       <c r="D127">
-        <v>0.08963911424393833</v>
+        <v>0.9489147315509399</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-2.471912761555909</v>
+        <v>0.04740113171014865</v>
       </c>
       <c r="C128">
-        <v>0.3146184849837391</v>
+        <v>-0.8859654076958832</v>
       </c>
       <c r="D128">
-        <v>-1.837079747560852</v>
+        <v>-0.2777912948553387</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.1612634685178872</v>
+        <v>-1.022321806164862</v>
       </c>
       <c r="C129">
-        <v>0.435190677036877</v>
+        <v>-0.4116360311304044</v>
       </c>
       <c r="D129">
-        <v>0.3356678297048538</v>
+        <v>0.7553893416661177</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.3834301469837331</v>
+        <v>-1.02582724544626</v>
       </c>
       <c r="C130">
-        <v>0.2844075858152457</v>
+        <v>-0.4416015049925597</v>
       </c>
       <c r="D130">
-        <v>0.7156264217705443</v>
+        <v>0.8603399315473408</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.394770848801696</v>
+        <v>-1.889602995036942</v>
       </c>
       <c r="C131">
-        <v>0.7722601930804464</v>
+        <v>0.119616869912193</v>
       </c>
       <c r="D131">
-        <v>0.664014565235416</v>
+        <v>1.441314795032969</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-1.018589904398709</v>
+        <v>-1.93430514386084</v>
       </c>
       <c r="C132">
-        <v>1.014682848686114</v>
+        <v>0.2134532543930718</v>
       </c>
       <c r="D132">
-        <v>0.6092427721944084</v>
+        <v>1.464370129494446</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.08184662183532282</v>
+        <v>-1.058059524759265</v>
       </c>
       <c r="C133">
-        <v>0.7287302373931579</v>
+        <v>-0.4801354411390575</v>
       </c>
       <c r="D133">
-        <v>0.5818205507286185</v>
+        <v>1.063027528530968</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.3755145441895479</v>
+        <v>-1.433760814006118</v>
       </c>
       <c r="C134">
-        <v>0.4581131687163023</v>
+        <v>-0.3635568761234222</v>
       </c>
       <c r="D134">
-        <v>1.057021857956561</v>
+        <v>1.434014880464813</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.4684826774340238</v>
+        <v>-0.8170520057799415</v>
       </c>
       <c r="C135">
-        <v>0.6995093019802967</v>
+        <v>0.2590457695225609</v>
       </c>
       <c r="D135">
-        <v>-0.655146531897055</v>
+        <v>-0.3025315459964733</v>
+      </c>
+      <c r="E135">
+        <v>13</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,16 +3085,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.6419279786901293</v>
+        <v>-1.310303242230817</v>
       </c>
       <c r="C136">
-        <v>0.7300932776808892</v>
+        <v>0.08594011399172828</v>
       </c>
       <c r="D136">
-        <v>-0.03091908080236438</v>
+        <v>0.7058953551674474</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-4.648992759277568</v>
+        <v>-0.3519444677320333</v>
       </c>
       <c r="C137">
-        <v>-0.1451206678291933</v>
+        <v>-0.7569515843327719</v>
       </c>
       <c r="D137">
-        <v>-1.769485088809517</v>
+        <v>0.397768006466415</v>
+      </c>
+      <c r="E137">
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,16 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.3280844878166323</v>
+        <v>-1.208308297809381</v>
       </c>
       <c r="C138">
-        <v>1.118027595649182</v>
+        <v>-0.1164877367164112</v>
       </c>
       <c r="D138">
-        <v>-0.1116450248991966</v>
+        <v>0.8664991045487738</v>
+      </c>
+      <c r="E138">
+        <v>13</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.5411510393563085</v>
+        <v>-1.142165859036409</v>
       </c>
       <c r="C139">
-        <v>0.8512031618544171</v>
+        <v>-0.1230526704128002</v>
       </c>
       <c r="D139">
-        <v>0.1665131607092107</v>
+        <v>0.5452674181122741</v>
+      </c>
+      <c r="E139">
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1276700032797443</v>
+        <v>-0.1951630794653647</v>
       </c>
       <c r="C140">
-        <v>-0.04842898850955275</v>
+        <v>-0.6123987791016988</v>
       </c>
       <c r="D140">
-        <v>-0.2088621899712013</v>
+        <v>-0.04472911387473411</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.433635747689412</v>
+        <v>-0.01776516117721988</v>
       </c>
       <c r="C141">
-        <v>-0.4515278167494746</v>
+        <v>-0.6014744156968721</v>
       </c>
       <c r="D141">
-        <v>-0.596963668767397</v>
+        <v>-0.2245259846447978</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -2794,16 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1462867263676164</v>
+        <v>-0.1558994364748949</v>
       </c>
       <c r="C142">
-        <v>0.3190725751925583</v>
+        <v>-0.2517106767748315</v>
       </c>
       <c r="D142">
-        <v>-1.093698324855108</v>
+        <v>-0.4774816077643094</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.1078708935615817</v>
+        <v>-0.1331764478530083</v>
       </c>
       <c r="C143">
-        <v>-0.2036726359143114</v>
+        <v>-0.5473291484714328</v>
       </c>
       <c r="D143">
-        <v>-0.4835228253900405</v>
+        <v>-0.269845957160021</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0975694050688285</v>
+        <v>-0.1333916029533052</v>
       </c>
       <c r="C144">
-        <v>0.2921510758941068</v>
+        <v>-0.2892212028909658</v>
       </c>
       <c r="D144">
-        <v>-0.9532911773045855</v>
+        <v>-0.5095007831233793</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4086048307737966</v>
+        <v>-0.1654323032238049</v>
       </c>
       <c r="C145">
-        <v>0.3033619150997883</v>
+        <v>-0.4533519732691923</v>
       </c>
       <c r="D145">
-        <v>-0.4831974758180917</v>
+        <v>-0.09983688290022125</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4902295472050528</v>
+        <v>-0.1342167195175611</v>
       </c>
       <c r="C146">
-        <v>0.06766560738472084</v>
+        <v>-0.3330600433044935</v>
       </c>
       <c r="D146">
-        <v>-0.7872338027533115</v>
+        <v>-0.3096882292861073</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -2879,16 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.118130832874585</v>
+        <v>-0.514826036572304</v>
       </c>
       <c r="C147">
-        <v>0.5582882236106931</v>
+        <v>-0.4285149687060553</v>
       </c>
       <c r="D147">
-        <v>0.08679386746267648</v>
+        <v>0.7913915732172478</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5151704687281131</v>
+        <v>0.6802613677378613</v>
       </c>
       <c r="C148">
-        <v>-0.6210882828429014</v>
+        <v>-0.9025014378985656</v>
       </c>
       <c r="D148">
-        <v>-0.8058034027106133</v>
+        <v>-0.7789838750845663</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,16 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.7888036448862557</v>
+        <v>-0.3465569056191716</v>
       </c>
       <c r="C149">
-        <v>0.3673552786662622</v>
+        <v>-0.5024255014848963</v>
       </c>
       <c r="D149">
-        <v>-0.8133579494095865</v>
+        <v>-0.007780146122694565</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9164767232402964</v>
+        <v>-0.06198695830649317</v>
       </c>
       <c r="C150">
-        <v>0.3079584704509541</v>
+        <v>-0.41639329932352</v>
       </c>
       <c r="D150">
-        <v>-0.702168871831567</v>
+        <v>-0.2810455463460457</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -2947,16 +3385,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.655067918708514</v>
+        <v>-0.7098839592621913</v>
       </c>
       <c r="C151">
-        <v>1.812631074918008</v>
+        <v>0.1335314711568141</v>
       </c>
       <c r="D151">
-        <v>-1.042308446699193</v>
+        <v>0.3571298523418889</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7759700070461244</v>
+        <v>0.3789462379739145</v>
       </c>
       <c r="C152">
-        <v>0.09770757456140451</v>
+        <v>-0.514493375038658</v>
       </c>
       <c r="D152">
-        <v>-1.110873569291117</v>
+        <v>-0.8204786831205622</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.3935055571961422</v>
+        <v>0.1978461625422012</v>
       </c>
       <c r="C153">
-        <v>0.1338345119005494</v>
+        <v>-0.3569735485151913</v>
       </c>
       <c r="D153">
-        <v>-1.022138184104516</v>
+        <v>-0.8569223388095445</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.2441813955242572</v>
+        <v>-0.3962787743834901</v>
       </c>
       <c r="C154">
-        <v>0.09046621668742168</v>
+        <v>-0.5047364577519192</v>
       </c>
       <c r="D154">
-        <v>-0.3083308013596849</v>
+        <v>0.3609802457996127</v>
+      </c>
+      <c r="E154">
+        <v>14</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.3002280802596046</v>
+        <v>-0.1888465369864262</v>
       </c>
       <c r="C155">
-        <v>-0.4722620488542049</v>
+        <v>-0.5651881008634965</v>
       </c>
       <c r="D155">
-        <v>-0.4004505720791393</v>
+        <v>-0.2107327756287047</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6422482849018119</v>
+        <v>-0.05278910934833117</v>
       </c>
       <c r="C156">
-        <v>0.4318753358638359</v>
+        <v>-0.41320886538413</v>
       </c>
       <c r="D156">
-        <v>-0.4395529054684575</v>
+        <v>-0.3162015557787181</v>
+      </c>
+      <c r="E156">
+        <v>14</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4394803466244113</v>
+        <v>-0.5884944216924533</v>
       </c>
       <c r="C157">
-        <v>0.2696942832627394</v>
+        <v>-0.3249127261808903</v>
       </c>
       <c r="D157">
-        <v>-0.1192205543244749</v>
+        <v>0.6264983702779974</v>
+      </c>
+      <c r="E157">
+        <v>14</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.3893150559740398</v>
+        <v>0.01992168643083403</v>
       </c>
       <c r="C158">
-        <v>-0.09182886281337306</v>
+        <v>-0.4821309304264795</v>
       </c>
       <c r="D158">
-        <v>-0.4573226060499107</v>
+        <v>-0.3297399653621725</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8558162454872826</v>
+        <v>-0.4398326077985676</v>
       </c>
       <c r="C159">
-        <v>0.7806473606754678</v>
+        <v>-0.2637328241675937</v>
       </c>
       <c r="D159">
-        <v>-0.2604148123355403</v>
+        <v>0.2596821746766058</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.764997970729218</v>
+        <v>-0.1467143549300609</v>
       </c>
       <c r="C160">
-        <v>-0.09444859988845726</v>
+        <v>-0.848732426754867</v>
       </c>
       <c r="D160">
-        <v>0.7161012980812992</v>
+        <v>0.599198580468048</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.3981999661557677</v>
+        <v>-0.3976676478877496</v>
       </c>
       <c r="C161">
-        <v>0.7055486626244994</v>
+        <v>-0.6025041049813515</v>
       </c>
       <c r="D161">
-        <v>0.1085559503262644</v>
+        <v>0.3103867845969208</v>
+      </c>
+      <c r="E161">
+        <v>14</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8766976365856367</v>
+        <v>-0.8115741470478253</v>
       </c>
       <c r="C162">
-        <v>0.6741508694857158</v>
+        <v>-0.5128811798661039</v>
       </c>
       <c r="D162">
-        <v>0.1976386458470749</v>
+        <v>0.9999324526586919</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.09841378805489209</v>
+        <v>-1.009502131140161</v>
       </c>
       <c r="C163">
-        <v>0.9877534329243369</v>
+        <v>0.003620454151999228</v>
       </c>
       <c r="D163">
-        <v>0.2535146524870003</v>
+        <v>0.7995677315558942</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,16 +3645,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.7108185574568704</v>
+        <v>-0.9226157563707968</v>
       </c>
       <c r="C164">
-        <v>1.213370739060986</v>
+        <v>-0.1615102837288951</v>
       </c>
       <c r="D164">
-        <v>-0.08038085782664006</v>
+        <v>0.8782282630564799</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.959370116433786</v>
+        <v>-0.6615390828294825</v>
       </c>
       <c r="C165">
-        <v>1.139095102253646</v>
+        <v>-0.1568607703494291</v>
       </c>
       <c r="D165">
-        <v>-0.1008741146832554</v>
+        <v>0.6249374677954131</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.004093317979867</v>
+        <v>0.2514634034166581</v>
       </c>
       <c r="C166">
-        <v>0.2246340217734488</v>
+        <v>-0.378522213639999</v>
       </c>
       <c r="D166">
-        <v>-1.079955462009258</v>
+        <v>-0.5622863561238252</v>
+      </c>
+      <c r="E166">
+        <v>14</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.4110941240556276</v>
+        <v>0.0404116753926626</v>
       </c>
       <c r="C167">
-        <v>0.174148611195939</v>
+        <v>-0.5463387643412712</v>
       </c>
       <c r="D167">
-        <v>-0.7198694239398464</v>
+        <v>-0.3431850208666461</v>
+      </c>
+      <c r="E167">
+        <v>14</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6065010316513828</v>
+        <v>-0.6334872716683377</v>
       </c>
       <c r="C168">
-        <v>0.8293644924736705</v>
+        <v>-0.3279706881577698</v>
       </c>
       <c r="D168">
-        <v>-0.319206313934816</v>
+        <v>0.5775248664904946</v>
+      </c>
+      <c r="E168">
+        <v>14</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,16 +3745,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.02462010474649245</v>
+        <v>-0.1050042740654518</v>
       </c>
       <c r="C169">
-        <v>0.2704830491558654</v>
+        <v>-0.3485694088312492</v>
       </c>
       <c r="D169">
-        <v>-0.9917170566523181</v>
+        <v>-0.5017974588337955</v>
+      </c>
+      <c r="E169">
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.210566510582563</v>
+        <v>-0.677749302176287</v>
       </c>
       <c r="C170">
-        <v>1.232337170843972</v>
+        <v>-0.0852986176354958</v>
       </c>
       <c r="D170">
-        <v>-0.6249260547482741</v>
+        <v>0.5919715093827485</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.234430183499606</v>
+        <v>-0.3812234159612282</v>
       </c>
       <c r="C171">
-        <v>1.40372416354563</v>
+        <v>0.002658636363528158</v>
       </c>
       <c r="D171">
-        <v>-1.106360370107526</v>
+        <v>0.1003435867947414</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,16 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.2731306600411625</v>
+        <v>-0.1216038166324734</v>
       </c>
       <c r="C172">
-        <v>0.1724516940101998</v>
+        <v>-0.4989573310657622</v>
       </c>
       <c r="D172">
-        <v>-0.2102418275841839</v>
+        <v>-0.08307446073557112</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.09461982884782016</v>
+        <v>-0.2735744313049217</v>
       </c>
       <c r="C173">
-        <v>0.7280370054298952</v>
+        <v>0.01394017902446136</v>
       </c>
       <c r="D173">
-        <v>-0.9994285352673905</v>
+        <v>-0.6541190325706249</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -3338,16 +3845,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.2564275128404309</v>
+        <v>-0.550020109662771</v>
       </c>
       <c r="C174">
-        <v>0.1244450482059735</v>
+        <v>-0.2007487798907494</v>
       </c>
       <c r="D174">
-        <v>-0.5168443448171203</v>
+        <v>-0.0375442971148065</v>
+      </c>
+      <c r="E174">
+        <v>14</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3748709560016837</v>
+        <v>0.143886992067559</v>
       </c>
       <c r="C175">
-        <v>-0.4154304194997505</v>
+        <v>-0.8575223792787448</v>
       </c>
       <c r="D175">
-        <v>-0.5447964333990605</v>
+        <v>-0.1970540223743077</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.2288774924351367</v>
+        <v>-0.5032323036914174</v>
       </c>
       <c r="C176">
-        <v>0.3254309564075226</v>
+        <v>-0.491269270377921</v>
       </c>
       <c r="D176">
-        <v>-0.08976201616447216</v>
+        <v>0.3689086459690205</v>
+      </c>
+      <c r="E176">
+        <v>14</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.6190604002168425</v>
+        <v>-0.5464455059679041</v>
       </c>
       <c r="C177">
-        <v>0.4329186211611332</v>
+        <v>-0.3074078563661559</v>
       </c>
       <c r="D177">
-        <v>-0.3810714356878928</v>
+        <v>0.3494357925672007</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.4158033349692571</v>
+        <v>-0.5303264929995573</v>
       </c>
       <c r="C178">
-        <v>0.484407325988984</v>
+        <v>-0.1887472005392826</v>
       </c>
       <c r="D178">
-        <v>-0.8144283645251427</v>
+        <v>0.01986705897953955</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.02960950384136235</v>
+        <v>-0.2433984606096132</v>
       </c>
       <c r="C179">
-        <v>-0.2318355423052203</v>
+        <v>-0.5033177711438476</v>
       </c>
       <c r="D179">
-        <v>-0.2383468676226767</v>
+        <v>-0.191484500559584</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3635915004148086</v>
+        <v>-0.1781255212531774</v>
       </c>
       <c r="C180">
-        <v>0.1510225324031773</v>
+        <v>-0.2692334371930734</v>
       </c>
       <c r="D180">
-        <v>-1.315582497857555</v>
+        <v>-0.5384989602388017</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,16 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.9591682368336643</v>
+        <v>-0.2410461025707759</v>
       </c>
       <c r="C181">
-        <v>0.5539856691380299</v>
+        <v>-0.3106314428077347</v>
       </c>
       <c r="D181">
-        <v>-1.649624749549278</v>
+        <v>-0.6168248976799355</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3474,16 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.03123996002415069</v>
+        <v>-0.5196452156516614</v>
       </c>
       <c r="C182">
-        <v>0.02604966646802779</v>
+        <v>-0.5485276968388167</v>
       </c>
       <c r="D182">
-        <v>-0.09006133417180151</v>
+        <v>0.2358017805613939</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.4553106595338342</v>
+        <v>-0.4017614730312338</v>
       </c>
       <c r="C183">
-        <v>0.09171636087041975</v>
+        <v>-0.598729961582312</v>
       </c>
       <c r="D183">
-        <v>0.2067168969130716</v>
+        <v>0.04789449461956663</v>
+      </c>
+      <c r="E183">
+        <v>14</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -3508,16 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.112135233206401</v>
+        <v>-0.4467565529949089</v>
       </c>
       <c r="C184">
-        <v>1.240431169920463</v>
+        <v>-0.0259337130203527</v>
       </c>
       <c r="D184">
-        <v>-0.5728046992740817</v>
+        <v>0.2215856838438764</v>
+      </c>
+      <c r="E184">
+        <v>14</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5876148815760642</v>
+        <v>-0.8031453217915385</v>
       </c>
       <c r="C185">
-        <v>0.4473482203766295</v>
+        <v>-0.559143906800648</v>
       </c>
       <c r="D185">
-        <v>0.1038651850368328</v>
+        <v>0.9683595805779579</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.550793272904283</v>
+        <v>0.9860429889000237</v>
       </c>
       <c r="C186">
-        <v>0.9530031195981086</v>
+        <v>-0.7745398832436154</v>
       </c>
       <c r="D186">
-        <v>-1.855598961962623</v>
+        <v>-0.01472341815378297</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,16 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.2572842161738704</v>
+        <v>-0.3174523177338265</v>
       </c>
       <c r="C187">
-        <v>0.04713600735712563</v>
+        <v>-0.4949956281948529</v>
       </c>
       <c r="D187">
-        <v>-0.4446012649647652</v>
+        <v>-0.0377444036165715</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3576,16 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.08908066076438087</v>
+        <v>-0.03664176482914794</v>
       </c>
       <c r="C188">
-        <v>0.1588657248322876</v>
+        <v>-0.224655721020975</v>
       </c>
       <c r="D188">
-        <v>-0.9895622884625788</v>
+        <v>-0.6761804457984545</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1467215054585205</v>
+        <v>-0.07183034659949997</v>
       </c>
       <c r="C189">
-        <v>-0.1655509932853338</v>
+        <v>-0.4972582401891824</v>
       </c>
       <c r="D189">
-        <v>-0.4562605969715151</v>
+        <v>-0.4778466801941457</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,16 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.04275391507039611</v>
+        <v>-0.2749335265599471</v>
       </c>
       <c r="C190">
-        <v>0.1599758686479776</v>
+        <v>-0.307449668695873</v>
       </c>
       <c r="D190">
-        <v>-0.8523108844540803</v>
+        <v>-0.4699401189963746</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.3928189576806205</v>
+        <v>-0.3776619651639904</v>
       </c>
       <c r="C191">
-        <v>-0.01334966055312382</v>
+        <v>-0.324539356249997</v>
       </c>
       <c r="D191">
-        <v>-0.440137330034913</v>
+        <v>-0.3548023274898743</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.140949110089792</v>
+        <v>0.113757342505502</v>
       </c>
       <c r="C192">
-        <v>0.08514334149213977</v>
+        <v>-0.3873643096081631</v>
       </c>
       <c r="D192">
-        <v>-0.7674388892812702</v>
+        <v>-0.7777919956692183</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.1190040015040578</v>
+        <v>-0.2264134187678248</v>
       </c>
       <c r="C193">
-        <v>0.1599627722656501</v>
+        <v>-0.2916717124784884</v>
       </c>
       <c r="D193">
-        <v>-1.002073231740552</v>
+        <v>-0.4909974526362177</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.4108892628938505</v>
+        <v>-0.5770569785684063</v>
       </c>
       <c r="C194">
-        <v>0.1115785598079828</v>
+        <v>-0.2487801064319898</v>
       </c>
       <c r="D194">
-        <v>-0.3617849358702241</v>
+        <v>-0.06178091522435702</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,16 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0303642319253965</v>
+        <v>-0.2909827379591529</v>
       </c>
       <c r="C195">
-        <v>0.4125901803652391</v>
+        <v>-0.3640145775395007</v>
       </c>
       <c r="D195">
-        <v>-1.170193939560695</v>
+        <v>-0.4318406191120762</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.5626928745122266</v>
+        <v>-0.8487298091417403</v>
       </c>
       <c r="C196">
-        <v>0.3308441174174856</v>
+        <v>-0.3443114953373601</v>
       </c>
       <c r="D196">
-        <v>-0.3376879936693548</v>
+        <v>0.1663348969898866</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,16 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1093231356271084</v>
+        <v>-0.2990551337099751</v>
       </c>
       <c r="C197">
-        <v>0.10968535586756</v>
+        <v>-0.3941127533245884</v>
       </c>
       <c r="D197">
-        <v>-0.6622312645884292</v>
+        <v>-0.08490317894948052</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3746,16 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.6239560656741875</v>
+        <v>-0.6682574134907071</v>
       </c>
       <c r="C198">
-        <v>0.3521423544506838</v>
+        <v>-0.5604170087048146</v>
       </c>
       <c r="D198">
-        <v>0.1685483852273401</v>
+        <v>0.08905005286673695</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3107420886624681</v>
+        <v>0.06060702677706264</v>
       </c>
       <c r="C199">
-        <v>-0.07530263944217384</v>
+        <v>-0.6462412552136693</v>
       </c>
       <c r="D199">
-        <v>-0.5254871040745177</v>
+        <v>-0.5690343632998115</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.2265440407459707</v>
+        <v>-0.0685864176920801</v>
       </c>
       <c r="C200">
-        <v>-0.07348600392008246</v>
+        <v>-0.6723387151754447</v>
       </c>
       <c r="D200">
-        <v>0.009266893117792829</v>
+        <v>-0.07679976232024416</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.2680499093317518</v>
+        <v>-0.7535937712959716</v>
       </c>
       <c r="C201">
-        <v>0.1184738965483993</v>
+        <v>-0.4150330441165493</v>
       </c>
       <c r="D201">
-        <v>0.07147837740568452</v>
+        <v>0.4610904301421241</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,16 +4405,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.03716716812583915</v>
+        <v>0.07056320743333894</v>
       </c>
       <c r="C202">
-        <v>-0.008224238121344015</v>
+        <v>-0.3216435097892887</v>
       </c>
       <c r="D202">
-        <v>-0.6137292873664519</v>
+        <v>-0.5285363028484648</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4541196116088996</v>
+        <v>0.1500627068351572</v>
       </c>
       <c r="C203">
-        <v>0.2522930197265809</v>
+        <v>-0.5185897300145265</v>
       </c>
       <c r="D203">
-        <v>-0.9037886901062532</v>
+        <v>-0.7716957336060029</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.07994494198987984</v>
+        <v>-0.2982895097925873</v>
       </c>
       <c r="C204">
-        <v>0.585660936475961</v>
+        <v>0.03259100368087188</v>
       </c>
       <c r="D204">
-        <v>-1.287710630405277</v>
+        <v>-0.7955495724734143</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -3865,16 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.207807284536024</v>
+        <v>-0.1559455420025956</v>
       </c>
       <c r="C205">
-        <v>0.7708467417056676</v>
+        <v>-0.4412710772620344</v>
       </c>
       <c r="D205">
-        <v>-0.5822801116131466</v>
+        <v>-0.7676845562009675</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.4773795119085333</v>
+        <v>-0.5090785867034646</v>
       </c>
       <c r="C206">
-        <v>-0.01570490685566563</v>
+        <v>-0.5083411393951309</v>
       </c>
       <c r="D206">
-        <v>-0.5105222123289517</v>
+        <v>0.008275901406760933</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,16 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6009388196667815</v>
+        <v>-0.01612137141719339</v>
       </c>
       <c r="C207">
-        <v>0.9440284722130756</v>
+        <v>-0.6593330737830776</v>
       </c>
       <c r="D207">
-        <v>-1.932595782020829</v>
+        <v>-0.845814949906576</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.5681288438003189</v>
+        <v>-0.3519688626666234</v>
       </c>
       <c r="C208">
-        <v>-0.4780663262971871</v>
+        <v>-0.7989154944899963</v>
       </c>
       <c r="D208">
-        <v>0.1599992730958837</v>
+        <v>0.2478449999561573</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.06379214954317958</v>
+        <v>-0.06292201881106455</v>
       </c>
       <c r="C209">
-        <v>-0.08699141154030442</v>
+        <v>-0.5057322304691243</v>
       </c>
       <c r="D209">
-        <v>-0.1706911119062882</v>
+        <v>-0.3120574427203721</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,16 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1705885626717176</v>
+        <v>-1.102836256729465</v>
       </c>
       <c r="C210">
-        <v>0.7423754532816181</v>
+        <v>-0.3885632216068172</v>
       </c>
       <c r="D210">
-        <v>0.2947996673966194</v>
+        <v>1.133342176364578</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.8020125806441318</v>
+        <v>-0.9004547018869948</v>
       </c>
       <c r="C211">
-        <v>1.408401015456395</v>
+        <v>-0.3133396106221942</v>
       </c>
       <c r="D211">
-        <v>-0.5112355394412482</v>
+        <v>0.6783500027845226</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.3469367145075914</v>
+        <v>-0.6354439950815334</v>
       </c>
       <c r="C212">
-        <v>-0.01420572220546223</v>
+        <v>-0.6211831117080651</v>
       </c>
       <c r="D212">
-        <v>0.2163354052304748</v>
+        <v>0.4536653698612604</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -4001,16 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2492966631091917</v>
+        <v>-0.1732828834501688</v>
       </c>
       <c r="C213">
-        <v>-0.01509238474138129</v>
+        <v>-0.5322984095273824</v>
       </c>
       <c r="D213">
-        <v>-0.4880204259518359</v>
+        <v>-0.04789466686871774</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1000686035630816</v>
+        <v>-0.106732980139211</v>
       </c>
       <c r="C214">
-        <v>-0.394749257009342</v>
+        <v>-0.595651862046565</v>
       </c>
       <c r="D214">
-        <v>-0.5602064385042472</v>
+        <v>-0.1624999046521931</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1131888512277597</v>
+        <v>0.3933990190710676</v>
       </c>
       <c r="C215">
-        <v>-0.319923476302558</v>
+        <v>-0.8438796962155031</v>
       </c>
       <c r="D215">
-        <v>0.84019582381043</v>
+        <v>-0.5372693464097459</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.04878634445587599</v>
+        <v>-0.06738363397484681</v>
       </c>
       <c r="C216">
-        <v>-0.2606635685529696</v>
+        <v>-0.5308377706845341</v>
       </c>
       <c r="D216">
-        <v>-0.1825208089525815</v>
+        <v>-0.391344279550405</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.2826922958775845</v>
+        <v>-0.1575971311084208</v>
       </c>
       <c r="C217">
-        <v>-0.05070627263971415</v>
+        <v>-0.5223884384887277</v>
       </c>
       <c r="D217">
-        <v>-0.01600803218064728</v>
+        <v>-0.2661617499600406</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,16 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.2093948580086696</v>
+        <v>-0.2636116206100457</v>
       </c>
       <c r="C218">
-        <v>-0.2588193367340674</v>
+        <v>-0.4894503176602784</v>
       </c>
       <c r="D218">
-        <v>-0.254299821443713</v>
+        <v>-0.1327876461329269</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4103,16 +4745,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.3598245545020896</v>
+        <v>-0.2578155894697252</v>
       </c>
       <c r="C219">
-        <v>-0.08246388315927937</v>
+        <v>-0.5357264029309391</v>
       </c>
       <c r="D219">
-        <v>-0.2250583831114649</v>
+        <v>-0.1800187331140999</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-2.967991879956162</v>
+        <v>1.799045709342629</v>
       </c>
       <c r="C220">
-        <v>0.3644492211115885</v>
+        <v>-1.098943473668277</v>
       </c>
       <c r="D220">
-        <v>-2.281565374678567</v>
+        <v>0.8175252858331534</v>
+      </c>
+      <c r="E220">
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-1.789116745881101</v>
+        <v>-0.3627115303352374</v>
       </c>
       <c r="C221">
-        <v>-0.7374011151753734</v>
+        <v>-0.8065840551995064</v>
       </c>
       <c r="D221">
-        <v>0.184305677982304</v>
+        <v>0.321764637989733</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-1.335547535555538</v>
+        <v>-0.3097291887508205</v>
       </c>
       <c r="C222">
-        <v>-0.7698008126887894</v>
+        <v>-1.07585074668034</v>
       </c>
       <c r="D222">
-        <v>1.517433831673539</v>
+        <v>0.6416348145474238</v>
+      </c>
+      <c r="E222">
+        <v>16</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -4171,16 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-1.503235996514804</v>
+        <v>1.186859936338567</v>
       </c>
       <c r="C223">
-        <v>-0.0420920212130868</v>
+        <v>-1.255411885381167</v>
       </c>
       <c r="D223">
-        <v>-1.731101385649636</v>
+        <v>0.7241288692894263</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.7848110637370594</v>
+        <v>-0.6821286834305245</v>
       </c>
       <c r="C224">
-        <v>-0.6507708898720499</v>
+        <v>-0.2502050422986771</v>
       </c>
       <c r="D224">
-        <v>0.5367097679718169</v>
+        <v>-0.01889382609318713</v>
+      </c>
+      <c r="E224">
+        <v>16</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-1.119421600997887</v>
+        <v>2.776494805596939</v>
       </c>
       <c r="C225">
-        <v>0.4625635790913092</v>
+        <v>-1.38600643146588</v>
       </c>
       <c r="D225">
-        <v>-3.796410501159221</v>
+        <v>0.7009987692383586</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.7850761843991106</v>
+        <v>-0.5699569234875081</v>
       </c>
       <c r="C226">
-        <v>-0.9716100165741199</v>
+        <v>-0.6005846934557312</v>
       </c>
       <c r="D226">
-        <v>0.8067513142614618</v>
+        <v>0.1751251856646598</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.8305589786161689</v>
+        <v>0.1674490275755562</v>
       </c>
       <c r="C227">
-        <v>-1.050816398333593</v>
+        <v>-1.078179397558003</v>
       </c>
       <c r="D227">
-        <v>0.4879627737644694</v>
+        <v>0.1695631732342309</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -4256,16 +4925,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-2.148492683069732</v>
+        <v>1.88476461715276</v>
       </c>
       <c r="C228">
-        <v>-0.02904268966269356</v>
+        <v>-1.345331808663144</v>
       </c>
       <c r="D228">
-        <v>-1.301430528068505</v>
+        <v>0.5598232695819203</v>
+      </c>
+      <c r="E228">
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-1.820342810658214</v>
+        <v>1.913910081826168</v>
       </c>
       <c r="C229">
-        <v>0.9470354757403993</v>
+        <v>-0.6087262561421926</v>
       </c>
       <c r="D229">
-        <v>-3.442850321400546</v>
+        <v>-0.244504398360615</v>
+      </c>
+      <c r="E229">
+        <v>16</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-4.891901864017925</v>
+        <v>0.3562238403665741</v>
       </c>
       <c r="C230">
-        <v>-0.2297247532241017</v>
+        <v>-1.230812715778327</v>
       </c>
       <c r="D230">
-        <v>-2.377678537675129</v>
+        <v>1.507592791106938</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,16 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-3.043405001517641</v>
+        <v>1.632233880675681</v>
       </c>
       <c r="C231">
-        <v>0.1690582432626987</v>
+        <v>-1.289601450754118</v>
       </c>
       <c r="D231">
-        <v>-1.288793466588404</v>
+        <v>0.9276026059990374</v>
+      </c>
+      <c r="E231">
+        <v>16</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-2.544025285948489</v>
+        <v>1.292123454052372</v>
       </c>
       <c r="C232">
-        <v>0.4394878007562755</v>
+        <v>-1.044586687259291</v>
       </c>
       <c r="D232">
-        <v>-1.748488711509796</v>
+        <v>0.6480379276901844</v>
+      </c>
+      <c r="E232">
+        <v>16</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,16 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-3.360525944398587</v>
+        <v>0.963668503109494</v>
       </c>
       <c r="C233">
-        <v>0.0944564807391776</v>
+        <v>-0.8952450213225362</v>
       </c>
       <c r="D233">
-        <v>-1.818906485760355</v>
+        <v>0.6614242091364824</v>
+      </c>
+      <c r="E233">
+        <v>16</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-1.040463617433389</v>
+        <v>-0.7957357986910818</v>
       </c>
       <c r="C234">
-        <v>-0.5296236636250282</v>
+        <v>-0.1437135034183288</v>
       </c>
       <c r="D234">
-        <v>0.6683896479651011</v>
+        <v>0.04804639837974006</v>
+      </c>
+      <c r="E234">
+        <v>16</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-1.565286475516544</v>
+        <v>0.2685142884466521</v>
       </c>
       <c r="C235">
-        <v>-0.35665073752042</v>
+        <v>-0.955895422838773</v>
       </c>
       <c r="D235">
-        <v>-0.3362265010469703</v>
+        <v>0.4879033501528126</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.6744013775581476</v>
+        <v>1.239010260994926</v>
       </c>
       <c r="C236">
-        <v>1.04002026407227</v>
+        <v>-0.9944465961806039</v>
       </c>
       <c r="D236">
-        <v>-1.491309102435618</v>
+        <v>0.7971150957688158</v>
+      </c>
+      <c r="E236">
+        <v>16</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.07223234462544836</v>
+        <v>2.412505100335952</v>
       </c>
       <c r="C237">
-        <v>0.9535650798556516</v>
+        <v>-0.9540945531374148</v>
       </c>
       <c r="D237">
-        <v>-3.034173417677111</v>
+        <v>-0.0007544406860102715</v>
+      </c>
+      <c r="E237">
+        <v>16</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-5.182887238524903</v>
+        <v>2.149685017771625</v>
       </c>
       <c r="C238">
-        <v>-0.3241364343044371</v>
+        <v>-1.72191119979606</v>
       </c>
       <c r="D238">
-        <v>-4.211589569624871</v>
+        <v>1.262600529737641</v>
+      </c>
+      <c r="E238">
+        <v>17</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,16 +5145,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-30.90354920908272</v>
+        <v>2.424494539134233</v>
       </c>
       <c r="C239">
-        <v>-7.194868448441081</v>
+        <v>-4.03942277992412</v>
       </c>
       <c r="D239">
-        <v>-5.890419548091743</v>
+        <v>1.371173030837787</v>
+      </c>
+      <c r="E239">
+        <v>17</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.2506869229242521</v>
+        <v>0.1303763997562965</v>
       </c>
       <c r="C240">
-        <v>-0.5370127395121493</v>
+        <v>-0.7686202706200188</v>
       </c>
       <c r="D240">
-        <v>-0.3793993035503487</v>
+        <v>-0.3547853051467757</v>
+      </c>
+      <c r="E240">
+        <v>17</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.9599424623284547</v>
+        <v>-0.5345884424500471</v>
       </c>
       <c r="C241">
-        <v>-0.7474880804499863</v>
+        <v>-1.059794087720044</v>
       </c>
       <c r="D241">
-        <v>1.112903203602933</v>
+        <v>0.6376153951435048</v>
+      </c>
+      <c r="E241">
+        <v>17</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -4494,16 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-1.623205415588589</v>
+        <v>-0.3053178051954172</v>
       </c>
       <c r="C242">
-        <v>-0.4874596583696046</v>
+        <v>-0.586185073079336</v>
       </c>
       <c r="D242">
-        <v>-0.4933591635092409</v>
+        <v>0.01340562626166952</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.8571953873865712</v>
+        <v>-0.6564375108103726</v>
       </c>
       <c r="C243">
-        <v>-0.3967466889162616</v>
+        <v>-0.1606584300316414</v>
       </c>
       <c r="D243">
-        <v>0.4634563768172061</v>
+        <v>-0.09899653121670915</v>
+      </c>
+      <c r="E243">
+        <v>17</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.9110833814768038</v>
+        <v>-0.06087333192355485</v>
       </c>
       <c r="C244">
-        <v>-0.7740584011069139</v>
+        <v>-0.7092536953977383</v>
       </c>
       <c r="D244">
-        <v>-0.6958333996220225</v>
+        <v>-0.1485226611112329</v>
+      </c>
+      <c r="E244">
+        <v>17</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-1.28058448630484</v>
+        <v>-0.9922149726557543</v>
       </c>
       <c r="C245">
-        <v>-0.7305153270972456</v>
+        <v>-0.9931896011189021</v>
       </c>
       <c r="D245">
-        <v>1.071485001396656</v>
+        <v>1.132941189498948</v>
+      </c>
+      <c r="E245">
+        <v>17</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-4.261276781151714</v>
+        <v>-0.349445170876944</v>
       </c>
       <c r="C246">
-        <v>-1.497862317909948</v>
+        <v>-1.195486836406004</v>
       </c>
       <c r="D246">
-        <v>0.2469816457456263</v>
+        <v>0.6102684998194912</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -4579,16 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-5.220584490512789</v>
+        <v>2.377261032828093</v>
       </c>
       <c r="C247">
-        <v>-0.1796028238680482</v>
+        <v>-1.191231238902096</v>
       </c>
       <c r="D247">
-        <v>-2.870103522160308</v>
+        <v>0.672945568304228</v>
+      </c>
+      <c r="E247">
+        <v>17</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.8645512771660298</v>
+        <v>-0.3193692749277483</v>
       </c>
       <c r="C248">
-        <v>-0.5708124876512114</v>
+        <v>-0.8384545747155595</v>
       </c>
       <c r="D248">
-        <v>0.943067027792439</v>
+        <v>0.0804687345300964</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
       </c>
       <c r="F248">
         <v>2</v>
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.9077289457760505</v>
+        <v>-0.4397193746588084</v>
       </c>
       <c r="C249">
-        <v>-0.4482290374745067</v>
+        <v>-0.5281616377777946</v>
       </c>
       <c r="D249">
-        <v>0.02762468544728869</v>
+        <v>0.07152332751160373</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-1.15807108585512</v>
+        <v>-0.7270499782832729</v>
       </c>
       <c r="C250">
-        <v>-0.5067458374622972</v>
+        <v>-0.6974687878529638</v>
       </c>
       <c r="D250">
-        <v>0.8309001322270365</v>
+        <v>0.484910681668082</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.091050597562911</v>
+        <v>-0.6402487215499342</v>
       </c>
       <c r="C251">
-        <v>-0.4099811900648717</v>
+        <v>-0.6853709996513032</v>
       </c>
       <c r="D251">
-        <v>0.5790862273059828</v>
+        <v>0.4673840503632942</v>
+      </c>
+      <c r="E251">
+        <v>17</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-1.19154318973753</v>
+        <v>-0.3446522539313168</v>
       </c>
       <c r="C252">
-        <v>-0.4126763786198577</v>
+        <v>-0.8343450248350169</v>
       </c>
       <c r="D252">
-        <v>0.9631562722465489</v>
+        <v>0.2277842043350036</v>
+      </c>
+      <c r="E252">
+        <v>17</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -4681,16 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.6623741598880659</v>
+        <v>-0.1512563100470801</v>
       </c>
       <c r="C253">
-        <v>-0.1718841837554946</v>
+        <v>-0.5306123339784153</v>
       </c>
       <c r="D253">
-        <v>-0.4095983476524525</v>
+        <v>-0.2045045883894018</v>
+      </c>
+      <c r="E253">
+        <v>17</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-3.097509258719765</v>
+        <v>-0.5685828735806198</v>
       </c>
       <c r="C254">
-        <v>-0.8425933492113711</v>
+        <v>-0.4120794402935133</v>
       </c>
       <c r="D254">
-        <v>0.05277173682804726</v>
+        <v>0.2181968021534331</v>
+      </c>
+      <c r="E254">
+        <v>17</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,16 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.015466404646382</v>
+        <v>-0.1719123388732194</v>
       </c>
       <c r="C255">
-        <v>-0.04885619988001124</v>
+        <v>-0.4749722567490799</v>
       </c>
       <c r="D255">
-        <v>-0.6764207150028121</v>
+        <v>-0.1983387883844343</v>
+      </c>
+      <c r="E255">
+        <v>17</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-1.301335973888695</v>
+        <v>-0.7315827262675823</v>
       </c>
       <c r="C256">
-        <v>-0.2793198624098647</v>
+        <v>-0.6866786904789184</v>
       </c>
       <c r="D256">
-        <v>1.22058128863609</v>
+        <v>0.4352671199277061</v>
+      </c>
+      <c r="E256">
+        <v>17</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -4749,16 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.248232756077794</v>
+        <v>-0.5281737984756476</v>
       </c>
       <c r="C257">
-        <v>-0.01563214418518095</v>
+        <v>-0.6144935427291699</v>
       </c>
       <c r="D257">
-        <v>-0.3408123478211681</v>
+        <v>0.1766443511821165</v>
+      </c>
+      <c r="E257">
+        <v>17</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-1.124311471938314</v>
+        <v>-0.09939057358825959</v>
       </c>
       <c r="C258">
-        <v>-0.1930259108963018</v>
+        <v>-1.043389416203464</v>
       </c>
       <c r="D258">
-        <v>0.3396711602888265</v>
+        <v>0.08004086229124618</v>
+      </c>
+      <c r="E258">
+        <v>17</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.594611170805855</v>
+        <v>-0.6670566647276679</v>
       </c>
       <c r="C259">
-        <v>-0.06361851656662712</v>
+        <v>-0.4466278643889103</v>
       </c>
       <c r="D259">
-        <v>0.2736737498514056</v>
+        <v>0.3306171994637848</v>
+      </c>
+      <c r="E259">
+        <v>17</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -4800,16 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.2014224872918352</v>
+        <v>-0.05549565115097355</v>
       </c>
       <c r="C260">
-        <v>-0.2860633486378141</v>
+        <v>-0.7043055652701004</v>
       </c>
       <c r="D260">
-        <v>-0.1212814304992959</v>
+        <v>-0.07028184002895604</v>
+      </c>
+      <c r="E260">
+        <v>17</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.6128724008103243</v>
+        <v>0.3279480857299794</v>
       </c>
       <c r="C261">
-        <v>-0.5249899230061658</v>
+        <v>-0.9322758565249158</v>
       </c>
       <c r="D261">
-        <v>-0.6803355491759157</v>
+        <v>-0.3152488963617279</v>
+      </c>
+      <c r="E261">
+        <v>17</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-1.361396793286909</v>
+        <v>-0.856973541502825</v>
       </c>
       <c r="C262">
-        <v>-0.1585243005802425</v>
+        <v>-0.01325955646549534</v>
       </c>
       <c r="D262">
-        <v>0.4516714488385268</v>
+        <v>0.01698152844433615</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -4851,16 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-3.526995700666857</v>
+        <v>1.008955353781865</v>
       </c>
       <c r="C263">
-        <v>-0.8754673832463868</v>
+        <v>-1.556997231087462</v>
       </c>
       <c r="D263">
-        <v>-1.664741585547525</v>
+        <v>0.7118310130334975</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.5312732827606318</v>
+        <v>-1.215344251979222</v>
       </c>
       <c r="C264">
-        <v>1.523105082951714</v>
+        <v>0.4845322952532341</v>
       </c>
       <c r="D264">
-        <v>-0.9785048090302301</v>
+        <v>-0.06731047422686476</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.5225057526409072</v>
+        <v>-1.067479004837915</v>
       </c>
       <c r="C265">
-        <v>1.371246858666231</v>
+        <v>0.2718521192369188</v>
       </c>
       <c r="D265">
-        <v>0.4872962275578832</v>
+        <v>0.2117218734714155</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.6723063685415051</v>
+        <v>-0.6985915585086355</v>
       </c>
       <c r="C266">
-        <v>0.7794240569123158</v>
+        <v>0.3121179067376549</v>
       </c>
       <c r="D266">
-        <v>-0.8800993178211488</v>
+        <v>-0.6965547848735272</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.06606623019262481</v>
+        <v>-0.5110648274732108</v>
       </c>
       <c r="C267">
-        <v>0.7179323270644342</v>
+        <v>0.1864648739917648</v>
       </c>
       <c r="D267">
-        <v>-1.237852859056748</v>
+        <v>-0.6531978568205798</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.1121278857427169</v>
+        <v>-0.507025409871973</v>
       </c>
       <c r="C268">
-        <v>0.2547420796602898</v>
+        <v>-0.1589147127593766</v>
       </c>
       <c r="D268">
-        <v>-0.3608254135173981</v>
+        <v>-0.1705825812342212</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.136444209324152</v>
+        <v>-0.06174508017932839</v>
       </c>
       <c r="C269">
-        <v>-0.3053751806926145</v>
+        <v>-0.3193994849580473</v>
       </c>
       <c r="D269">
-        <v>-0.6152434725620324</v>
+        <v>-0.6024227895315244</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -4970,16 +5765,19 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.3246129847359884</v>
+        <v>-0.692221709008404</v>
       </c>
       <c r="C270">
-        <v>0.8256098262143481</v>
+        <v>-0.01464192808674415</v>
       </c>
       <c r="D270">
-        <v>0.8523258449204828</v>
+        <v>-0.1065681654657056</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.3571261049233461</v>
+        <v>-0.4610913911229929</v>
       </c>
       <c r="C271">
-        <v>0.524116845565038</v>
+        <v>0.1127239820866673</v>
       </c>
       <c r="D271">
-        <v>-0.5261615074663313</v>
+        <v>-0.5682207056796172</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -5004,13 +5805,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.03328192626911369</v>
+        <v>-0.6414691203058507</v>
       </c>
       <c r="C272">
-        <v>0.9381544573829571</v>
+        <v>0.08031407183242405</v>
       </c>
       <c r="D272">
-        <v>-0.1016016456933316</v>
+        <v>-0.1612046005386704</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -5021,13 +5825,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.007490104287408372</v>
+        <v>0.03908399131572798</v>
       </c>
       <c r="C273">
-        <v>-0.1881143383576519</v>
+        <v>-0.1553127698744639</v>
       </c>
       <c r="D273">
-        <v>-1.034888824731321</v>
+        <v>-0.9827580801790828</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5038,16 +5845,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.2640710953550746</v>
+        <v>-0.3784848850063681</v>
       </c>
       <c r="C274">
-        <v>0.6569762453143657</v>
+        <v>0.1564028757961646</v>
       </c>
       <c r="D274">
-        <v>-0.3862076755257263</v>
+        <v>-0.8040447900785077</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -5058,16 +5865,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.3118243982247053</v>
+        <v>-1.08825750256892</v>
       </c>
       <c r="C275">
-        <v>1.006245508560096</v>
+        <v>0.2266940249138931</v>
       </c>
       <c r="D275">
-        <v>-0.250783660763466</v>
+        <v>0.1420576722867477</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -5078,16 +5885,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.44922348459752</v>
+        <v>-0.6862777594020242</v>
       </c>
       <c r="C276">
-        <v>0.6302547426629513</v>
+        <v>-0.05992680239846522</v>
       </c>
       <c r="D276">
-        <v>0.4948488067517621</v>
+        <v>-0.09144205274724321</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -5098,16 +5905,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.5178319194127774</v>
+        <v>-0.6752346892482259</v>
       </c>
       <c r="C277">
-        <v>0.3215023977183991</v>
+        <v>-0.02846861443562564</v>
       </c>
       <c r="D277">
-        <v>-0.1535186152633476</v>
+        <v>-0.0816432291406155</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -5118,16 +5925,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.2531220355285502</v>
+        <v>-0.4666039260887003</v>
       </c>
       <c r="C278">
-        <v>0.3537027685973656</v>
+        <v>-0.150314494286067</v>
       </c>
       <c r="D278">
-        <v>0.04143451722476543</v>
+        <v>-0.2351919589274894</v>
       </c>
       <c r="E278">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -5138,16 +5945,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.7869344240807883</v>
+        <v>-0.9112858277469447</v>
       </c>
       <c r="C279">
-        <v>0.4565399662945361</v>
+        <v>-0.205094600252308</v>
       </c>
       <c r="D279">
-        <v>1.147188744908264</v>
+        <v>0.3112672034806584</v>
       </c>
       <c r="E279">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -5158,16 +5965,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.6947178064723378</v>
+        <v>-0.5233272188830624</v>
       </c>
       <c r="C280">
-        <v>0.248051754023328</v>
+        <v>-0.08984957568664055</v>
       </c>
       <c r="D280">
-        <v>-0.3797538039126092</v>
+        <v>-0.3078390907162921</v>
       </c>
       <c r="E280">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -5178,16 +5985,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.4851210481934899</v>
+        <v>-1.123661541264323</v>
       </c>
       <c r="C281">
-        <v>0.393321372401686</v>
+        <v>-0.1830192471180898</v>
       </c>
       <c r="D281">
-        <v>0.403969571768739</v>
+        <v>0.4879573337734014</v>
       </c>
       <c r="E281">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -5198,16 +6005,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-0.0886378987536684</v>
+        <v>-0.4985887196242341</v>
       </c>
       <c r="C282">
-        <v>0.5693418300467752</v>
+        <v>-0.09734373364781278</v>
       </c>
       <c r="D282">
-        <v>-0.792250095014092</v>
+        <v>-0.3296319273760759</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -5218,16 +6025,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.4128651000019243</v>
+        <v>-0.3000806395726303</v>
       </c>
       <c r="C283">
-        <v>0.3320784581100679</v>
+        <v>-0.6102338530669457</v>
       </c>
       <c r="D283">
-        <v>2.341575244760107</v>
+        <v>0.1327341473616881</v>
       </c>
       <c r="E283">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F283">
         <v>2</v>
@@ -5238,16 +6045,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.6597787274596381</v>
+        <v>-0.5489967871465853</v>
       </c>
       <c r="C284">
-        <v>0.1793597249684571</v>
+        <v>-0.5730692450919872</v>
       </c>
       <c r="D284">
-        <v>2.135286951576025</v>
+        <v>0.2731700817905762</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F284">
         <v>2</v>
@@ -5258,19 +6065,19 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.8886982955869653</v>
+        <v>-0.9463379131626042</v>
       </c>
       <c r="C285">
-        <v>0.5644643163862223</v>
+        <v>-0.1820801721592804</v>
       </c>
       <c r="D285">
-        <v>0.2063208741734968</v>
+        <v>0.3859677217729971</v>
       </c>
       <c r="E285">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -5278,16 +6085,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.8085205162818143</v>
+        <v>-0.9743895259513444</v>
       </c>
       <c r="C286">
-        <v>0.9270549067427075</v>
+        <v>0.3855945608669599</v>
       </c>
       <c r="D286">
-        <v>-0.6556413129517542</v>
+        <v>-0.4340075278413348</v>
       </c>
       <c r="E286">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -5298,16 +6105,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.5335029543483795</v>
+        <v>-0.8067456859257491</v>
       </c>
       <c r="C287">
-        <v>0.9032889980666514</v>
+        <v>0.001787994862724143</v>
       </c>
       <c r="D287">
-        <v>0.4953953041834825</v>
+        <v>0.0004456519435011019</v>
       </c>
       <c r="E287">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -5318,16 +6125,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.8397570923518805</v>
+        <v>-0.8282440194684615</v>
       </c>
       <c r="C288">
-        <v>1.136470353426435</v>
+        <v>0.2388481142234802</v>
       </c>
       <c r="D288">
-        <v>-0.8169133782920908</v>
+        <v>-0.5838424079023359</v>
       </c>
       <c r="E288">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -5338,16 +6145,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-1.527012500042328</v>
+        <v>-1.254723111105709</v>
       </c>
       <c r="C289">
-        <v>1.011784399991053</v>
+        <v>0.8084489902982271</v>
       </c>
       <c r="D289">
-        <v>-0.5703142861090278</v>
+        <v>-0.6678972999525568</v>
       </c>
       <c r="E289">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -5358,16 +6165,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.7243967193535312</v>
+        <v>-0.9904237670868075</v>
       </c>
       <c r="C290">
-        <v>0.8114409382828907</v>
+        <v>0.201474029594807</v>
       </c>
       <c r="D290">
-        <v>0.2643461728029665</v>
+        <v>-0.00777501614949655</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -5378,16 +6185,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-0.620880074182157</v>
+        <v>-1.024143523780104</v>
       </c>
       <c r="C291">
-        <v>0.6400085092275561</v>
+        <v>0.1429027255632002</v>
       </c>
       <c r="D291">
-        <v>0.1590077251078586</v>
+        <v>0.0560084138427121</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -5398,16 +6205,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.9334736741681973</v>
+        <v>-1.001074914755983</v>
       </c>
       <c r="C292">
-        <v>0.3687827712959163</v>
+        <v>0.303773103618535</v>
       </c>
       <c r="D292">
-        <v>-0.3390289408359437</v>
+        <v>-0.3200682235956175</v>
       </c>
       <c r="E292">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F292">
         <v>1</v>
